--- a/CloudProjectAutomation/src/test/java/com/DataDocs/Test1.xlsx
+++ b/CloudProjectAutomation/src/test/java/com/DataDocs/Test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2126765\eclipse-workspace\CloudProjectAutomation\src\test\java\com\DataDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2126765\git\CloudProjectAutomation_M\CloudProjectAutomation\src\test\java\com\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87CAAF9-FE53-4F8D-8092-57085F1C2C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C8C0A5-91F7-4CC1-8155-4F16A53ACB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{FCA6C714-1ABD-4E01-BCD2-B9B0CEDCD72F}"/>
   </bookViews>
@@ -82,12 +82,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -116,6 +110,12 @@
   </si>
   <si>
     <t>aju@abc.co</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,22 +619,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -645,19 +645,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3">
         <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>30000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -665,22 +665,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>35000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/CloudProjectAutomation/src/test/java/com/DataDocs/Test1.xlsx
+++ b/CloudProjectAutomation/src/test/java/com/DataDocs/Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2126765\git\CloudProjectAutomation_M\CloudProjectAutomation\src\test\java\com\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C8C0A5-91F7-4CC1-8155-4F16A53ACB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5BAF25-DDCE-435A-89F6-09ECB8BFBC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{FCA6C714-1ABD-4E01-BCD2-B9B0CEDCD72F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>S.No</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>LastName</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
 </sst>
 </file>
@@ -183,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,9 +207,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,7 +605,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,14 +653,14 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
-        <v>30000</v>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
@@ -670,14 +676,14 @@
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2">
-        <v>35000</v>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>21</v>
